--- a/P0015/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0015/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0015_New\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0015/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F074B2-5C07-447C-9C7E-9D39A96EC282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:1_{C7F074B2-5C07-447C-9C7E-9D39A96EC282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA6E513-1DA0-4B97-A6A7-607951CD1FED}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="765" windowWidth="10050" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -95,13 +95,13 @@
     <t>P0015</t>
   </si>
   <si>
-    <t>PR1001</t>
+    <t>PR0001</t>
   </si>
   <si>
     <t>Informe final  Mojana edit S- EA</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015_New/02_PRODUCTOS/CORPOICA</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/Corpoica Informe final convenio 002 de 2012/CD 5/Informe final  Mojana edit S- EA.pdf</t>
   </si>
   <si>
     <t>CORPOICA</t>
@@ -116,7 +116,8 @@
     <t>NA</t>
   </si>
   <si>
-    <t xml:space="preserve">Estudio de prefactibilidad del uso sostenible de la fauna silvestre de la región de La Mojana como alternativa de desarrollo, el tiene como objetivo precisar las diferentes alternativas del uso de la fauna silvestre por parte de las comunidades locales y la forma como este uso se podría introducir en los sistemas productivos, propiciando beneficios sociales, económicos y ecológicos. </t>
+    <t>El documento titulado "Estudio de Prefactibilidad del Uso Sostenible de la Fauna Silvestre de la Región de La Mojana - Caribe de Colombia" es un informe técnico elaborado por CORPOICA, el DNP, el Fondo de Adaptación y el IAvH. Su objetivo principal es coordinar y desarrollar un estudio que evalúe la viabilidad ambiental y socioeconómica del uso sostenible de la fauna nativa en la región de La Mojana, que abarca 11 municipios de cuatro departamentos: Sucre, Córdoba, Bolívar y Antioquia. El contenido del documento se organiza en varias secciones clave:
+1. Contexto y Diagnóstico Ambiental: Se presenta un análisis de la situación actual de la región, destacando la importancia de la biodiversidad y los recursos naturales. Se identifican problemas críticos como la falta de manejo del recurso hídrico, la ausencia de políticas de protección de humedales y la baja capacidad institucional, entre otros.  2. Zonificación y Ordenamiento Territorial: Se propone un enfoque de ordenamiento territorial que incluye la zonificación de áreas para el manejo sostenible, la creación de zonas rotegidas y de uso ecológico, así como áreas de recuperación y restauración. Este proceso se basa en la participación de las comunidades locales y el Estado, definiendo derechos y deberes. 3. Metodología del Estudio: El estudio se basa en una metodología integral que incluye la actualización de información sobre la fauna silvestre, la caracterización y diagnóstico de su uso, y la recopilación de datos sobre sistemas de uso sostenible. Se emplean métodos de investigación aplicada y descriptiva, así como análisis de campo para evaluar el estado de los ecosistemas y la fauna. 4. nvestigación y Conservación: Se enfatiza la necesidad de desarrollar investigaciones que generen información básica sobre las especies manejadas, así como la importancia de la conservación in situ y ex situ. Se proponen modelos técnicos estandarizados para el manejo de fauna en cautiverio y la conservación de hábitats. 5. Propuestas de Proyectos: Se presentan perfiles de proyectos que buscan implementar sistemas de uso sostenible de la fauna silvestre, con un enfoque en la participación comunitaria y el desarrollo de capacidades locales. Se menciona la posibilidad de establecer una estación biológica en San Marcos, administrada por Corpomojana, como un centro de apoyo para la investigación y el fomento del uso sostenible de la fauna</t>
   </si>
   <si>
     <t>Informe</t>
@@ -128,16 +129,16 @@
     <t>El informe proporciona una visión general de la región de La Mojana y describe los sistemas de uso de la fauna silvestre, así como su relación con las problemáticas específicas de la zona. Principalmente, se analiza cómo las inundaciones afectan el uso de la fauna y la supervivencia de las poblaciones silvestres en La Mojana. En esta propuesta metodológica integral para desarrollar el estudio de prefactibilidad ambiental y socioeconómica del uso sostenible de la fauna nativa, se detalla la metodología aplicada para caracterizar y diagnosticar la fauna silvestre. Esto se logró mediante rutas de reconocimiento y monitoreo en diversas áreas, como San Matías (Ayapel), San Marcos-Santiago Apóstol, Santiago Apóstol-Isla del Coco, Isla del Coco-Montería, Doña Ana-San Antonio, Pampanilla-Majagual, Majagual-San Marcos, Caño Viejo, Las Chispas, Jegua, Caño Carate, Isla del Coco, Pampanilla-Campo Alegre y Pampanilla-La Travesía.  Adicionalmente, se realizaron 11 talleres de capacitación y divulgación con los pobladores de 10 localidades, se presentaron los resultados relacionados con el uso y tenencia de la fauna, asi como las problematicas asociadas,  la cacería , uso y comercio de especies. Se realizaron encuestas a funcionarios de las Umatas y oficinas de planeación con el fin de conocer las actividades de conservación y las estrategias de sensibilización y participación que podrian implementarse.  Posteriormente, se compararon los sistemas de uso con estudios previos y se realizó una selección preliminar de comunidades para el manejo sostenible de la fauna silvestre. Se planteó el ordenamiento de la fauna silvestre (prefactibilidad) y se expusieron los criterios de selección de especies y comunidades, así como los criterios para evaluar la viabilidad de los sistemas de uso sostenible.  Se realizaron seis talleres especiales de concertación y posteriormente se plantearon tres lineas estratégicas que tienen como visión consolidar el ordenamiento ambiental territorial de La Mojana: 1. Una línea relacionada con seis especies seleccionadas (Pisingo, Mono aullador, Chavarrí, Babilla, Ponche e Iguana) y tres perfiles de proyectos para el uso sostenible de algunas especies de fauna silvestre que demostraron alta prefactibilidad; 2. Creación de un centro experimental de fomento de la biodiversidad, con énfasis en las especies tradicionalmente usadas y con la restauración ecosistémica; 3. Consolidación de la region de La Mojana como un área protegida en la categoria de distrito de manejo integrado-DMI u otra que compatibilice la conservación de biodiversidad y los sistemas productivos.  Finalmente, se presentaron proyectos para el uso sostenible de la fauna silvestre y se propone  la creación de La Mojana como área protegida.</t>
   </si>
   <si>
-    <t>no</t>
+    <t>No</t>
   </si>
   <si>
     <t>Información bastante completa y relevante para el entendimiento y propuestas del uso sostenible de la fauna silvestre en la región de La Mojana.</t>
   </si>
   <si>
-    <t>Prefactibilidad, Fauna silvestre,  Conservación,  Comunidad,  Uso sostenible, Manejo sostenible,  Uso y Comercio, Inundación, Pisingo, Mono Aullador,  Chavarrí, Babilla, Ponche, Iguana, Pato Real, La Mojana, Ayapel, San Marcos. Santiago Apóstol, Isla del Coco, San Antonio, Majagual, Caño Viejo, Jegua, Las Chispas, Caño Carate, Pampanilla</t>
-  </si>
-  <si>
-    <t>PR002</t>
+    <t>Prefactibilidad, fauna silvestre,  conservación,  comunidad,  uso sostenible, manejo sostenible,  uso y comercio, inundación, Pisingo, Mono aullador,  Chavarrí, Babilla, Ponche, Iguana, Pato Real, La Mojana, Ayapel, San Marcos, Santiago Apóstol, Isla del Coco, San Antonio, Majagual, Caño Viejo, Jegua, Las Chispas, Caño Carate, Pampanilla</t>
+  </si>
+  <si>
+    <t>PR0002</t>
   </si>
   <si>
     <t xml:space="preserve">INFORME FINAL COMPONENTE ECONOMICO MOJANA NOVIEMBRE 27  DE  </t>
@@ -146,77 +147,180 @@
     <t>IGAC</t>
   </si>
   <si>
-    <t>El análisis de la región de La Mojana revela una compleja interacción entre actividades económicas, ingresos y medios de vida, enmarcada por un mapa de actores que incluye productores y gremios. Con respecto al uso y vocación de la tierra, aproximadamente el 60% del área es apta para la agricultura, pero solo el 14.6% de las tierras potencialmente agrícolas se explotan. Predominan sistemas de producción pecuaria, con un 78% de la superficie dedicada a la ganadería, lo que genera impactos negativos en la sostenibilidad ambiental.por otro lado, la agricultura, que representa el 44% de las actividades, incluye cultivos comerciales como arroz y maíz mecanizado, así como cultivos de subsistencia.  Además, se identificaron cinco zonas de uso de la tierra, desde tierras no inundables hasta aquellas que son inundadas por períodos prolongados, lo que afecta la planificación agrícola. Las inundaciones a causa del fenómeno de La niña en 2010 resutaron en que el 85% de los productores reportaron una disminución en sus ingresos, lo que afectó gravemente sus medios de vida. Otro hallazgo del informe es que La asistencia técnica es escasa, con un 69% de los encuestados sin apoyo, lo que limita la competitividad y el manejo adecuado de insumos. En ese sentido, en el informe se recomienda implementar planes integrales de asistencia técnica que involucren a organizaciones de productores y entidades públicas y privadas. Finalmente, se destaca que la mitad de la población ha tenido que desplazarse debido a inundaciones, evidenciando la necesidad de estrategias efectivas para enfrentar futuros desastres naturales , pues a pesar de los esfuerzos de adaptación, un alto porcentaje de la población (85%) no está preparada para enfrentar futuras inundaciones, lo que resalta la urgencia de implementar estrategias efectivas de mitigación y adaptación en la región.</t>
+    <t>El análisis de la región de La Mojana revela una compleja interacción entre actividades económicas, ingresos y medios de vida, enmarcada por un mapa de actores que incluye productores y gremios. Con respecto al uso y vocación de la tierra, aproximadamente el 60% del área es apta para la agricultura, pero solo el 14.6% de las tierras potencialmente agrícolas se explotan. Predominan sistemas de producción pecuaria, con un 78% de la superficie dedicada a la ganadería, lo que genera impactos negativos en la sostenibilidad ambiental Por otro lado, la agricultura, que representa el 44% de las actividades, incluye cultivos comerciales como arroz y maíz mecanizado, así como cultivos de subsistencia.  Además, se identificaron cinco zonas de uso de la tierra, desde tierras no inundables hasta aquellas que son inundadas por períodos prolongados, lo que afecta la planificación agrícola. Las inundaciones a causa del fenómeno de La niña en 2010 resultaron en que el 85% de los productores reportaron una disminución en sus ingresos, lo que afectó gravemente sus medios de vida. Otro hallazgo del informe es que La asistencia técnica es escasa, con un 69% de los encuestados sin apoyo, lo que limita la competitividad y el manejo adecuado de insumos. En ese sentido, en el informe se recomienda implementar planes integrales de asistencia técnica que involucren a organizaciones de productores y entidades públicas y privadas. Finalmente, se destaca que la mitad de la población ha tenido que desplazarse debido a inundaciones, evidenciando la necesidad de estrategias efectivas para enfrentar futuros desastres naturales , pues a pesar de los esfuerzos de adaptación, un alto porcentaje de la población (85%) no está preparada para enfrentar futuras inundaciones, lo que resalta la urgencia de implementar estrategias efectivas de mitigación y adaptación en la región.</t>
+  </si>
+  <si>
+    <t>docx</t>
+  </si>
+  <si>
+    <t>El informe aborda la actualización de los sistemas de producción en la región y evalúa las pérdidas económicas ocasionadas por inundaciones, particularmente tras el fenómeno de La Niña en 2010. Esta situación, provocada por el desbordamiento del río Cauca, afectó a múltiples municipios, dejando pérdidas significativas en cultivos y ganado. Para ello, se realizaron talleres con productores en los núcleos de Magangué, Majagual, San Marcos y Nechí, lo que permitió obtener patrones de costos que alimentaron el modelo de equilibrio general y el cálculo de excedentes económicos. Los sistemas de producción analizados incluyeron: Arroz tecnificado. Arroz manual. Maíz unicultivo tecnificado, Maíz unicultivo tradicional, Yuca unicultivo, Ñame unicultivo, Patilla, Ganado doble propósito.</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/Corpoica Informe final convenio 002 de 2012/CD 2/ARCHIVOS INFORME FINAL MOJANA/COSTOS GALO OCTUBRE 11 DE 2012</t>
+  </si>
+  <si>
+    <t>Son relevantes los gráficos y las tablas contenidos en el análisis pues ayudan a visualizar los cambios en los niveles de producción, ingresos, usos de la tierra y otros aspectos antes y después de la inundación causada por el fenómeno de La Niña en el 2010. Algunos anexos están incluidos en el informe a partir de la página 88</t>
+  </si>
+  <si>
+    <t>Mapa de actores, actividades económicas, ingresos., medios de vida, gremios, asistencia técnica, régimen de uso, tenencia y propiedad de la tierra</t>
+  </si>
+  <si>
+    <t>PR0003</t>
+  </si>
+  <si>
+    <t>GP-F-04InformeTcnicoFinal</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE CÓRDOBA</t>
+  </si>
+  <si>
+    <t>El informe técnico final "Evaluación  a nivel de pre factibilidad de los requerimientos para establecer un nicho  mojanero de arroz limpio (arroz fino)" realiza una caracterización de la producción de arroz criollo en ocho municipios de la región, lográndose la ubicación de los predios dedicados a esta actividad, la identificación de los agricultores, tiempo en la actividad productiva, áreas sembradas, variedades, producción, costos y mercado del arroz criollo.  En los recorridos se lograron identificar 43 variedades de este tipo de arroz, de las cueles se seleccionaron siete (7), consideradas como finas, para realizar pruebas culinarias en restaurantes de gama alta en cinco ciudades del Caribe y el Interior del país.</t>
   </si>
   <si>
     <t>doc</t>
   </si>
   <si>
-    <t>El informe aborda la actualización de los sistemas de producción en la región y evalúa las pérdidas económicas ocasionadas por inundaciones, particularmente tras el fenómeno de La Niña en 2010. Esta situación, provocada por el desbordamiento del río Cauca, afectó a múltiples municipios, dejando pérdidas significativas en cultivos y ganado. Para ello, se realizaron talleres con productores en los núcleos de Magangué, Majagual, San Marcos y Nechí, lo que permitió obtener patrones de costos que alimentaron el modelo de equilibrio general y el cálculo de excedentes económicos. Los sistemas de producción analizados incluyeron: Arroz tecnificado. Arroz manual. Maíz unicultivo tecnificado, Maíz unicultivo tradicional, Yuca unicultivo, Ñame unicultivo, Patilla, Ganado doble propósito.</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>Algunos están incluidos en el informe a partir de la página 88 y otros se subieron en la carpeta C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0015\05_GENERAL\Anexos informe final componente económico</t>
-  </si>
-  <si>
-    <t>Son relevantes los gráficos y las tablas contenidos en el análisis pues ayudan a visualizar los cambios en los niveles de producción, ingresos, usos de la tierra y otros aspectos antes y después de la inundación causada por el fenómeno de La Niña en el 2010</t>
-  </si>
-  <si>
-    <t>Mapa de actores, actividades económicas, ingresos., medios de vida, gremios, asistencia técnica, régimen de uso, tenencia y propiedad de la tierra</t>
-  </si>
-  <si>
-    <t>PR003</t>
-  </si>
-  <si>
-    <t>GP-F-04InformeTcnicoFinal</t>
-  </si>
-  <si>
-    <t>Estudio que realiza una caracterización de la producción de arroz criollo en ocho municipios de la región, lográndose la ubicación de los predios dedicados a esta actividad, la identificación de los agricultores, tiempo en la actividad productiva, áreas sembradas, variedades, producción, costos y mercado del arroz criollo.  En los recorridos se lograron identificar 43 variedades de este tipo de arroz, de las cueles se seleccionaron siete (7), consideradas como finas, para realizar pruebas culinarias en restaurantes de gama alta en cinco ciudades del Caribe y el Interior del país.</t>
-  </si>
-  <si>
-    <t>El estudio tiene como objetivo evaluar, a nivel de prefactibilidad, los requerimientos para establecer un nicho mojanero de producción de arroz limpio y fino. Se estructura al rededor de los objetivos específicos de conocer la oferta potencial de arroces criollos y sus costos de producción, establecer la demanda potencial de arroces criollos en restaurantes tipo gourmet, determinar a nivel de prefactibilidad la viabilidad de establecer un nicho mojanero de arroz criollo y establecer las necesidades de organización social, económica, de infraestructura y logísticas para establecer un nicho mojanero de arroces criollo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En lo social, el documento evidencia el trabajo con agricultores de arroz criollo en ocho municipios de la región de La Mojana, por lo que tiene información que caracteriza a estos actores y su actividad económica (páginas 12 y 13). En sus recomendaciones, el informe da cuenta de un nivel organizativo bajo en los arroceros. </t>
-  </si>
-  <si>
-    <t>Caracterización de actores (arroceros); Actividades económicas; Medios de vida</t>
-  </si>
-  <si>
-    <t>PR004</t>
+    <t xml:space="preserve">El estudio tiene como objetivo evaluar, a nivel de prefactibilidad, los requerimientos para establecer un nicho mojanero de producción de arroz limpio y fino. Se estructura al rededor de los objetivos específicos de conocer la oferta potencial de arroces criollos y sus costos de producción, establecer la demanda potencial de arroces criollos en restaurantes tipo gourmet, determinar a nivel de prefactibilidad la viabilidad de establecer un nicho mojanero de arroz criollo y establecer las necesidades de organización social, económica, de infraestructura y logísticas para establecer un nicho mojanero de arroces criollo. Se presentan los resultados de encuentas realizadas para conocer la demanda de arroz, los resultados de cpstps de producción de arroz criollo en la región de La Mojana. </t>
+  </si>
+  <si>
+    <t>En lo social, el documento evidencia el trabajo con agricultores de arroz criollo en ocho municipios de la región de La Mojana, por lo que tiene información que caracteriza a estos actores y su actividad económica (páginas 12 y 13). En sus recomendaciones, el informe da cuenta de un nivel organizativo bajo en los arroceros.  
+Variable: Costos de producción de arroz criollo en la Region de La Mojana. Tabla 16.  Pag.88</t>
+  </si>
+  <si>
+    <t>Caracterización de actores (arroceros), actividades económicas, medios de vida, arroz criollo, demanda arroz, oferta arroz, costos de producción arroz.</t>
+  </si>
+  <si>
+    <t>PR0004</t>
   </si>
   <si>
     <t>INFORME_MODELACION LA MOJANA</t>
   </si>
   <si>
-    <t>UNIVERSIDADNADENALOSNAANDESNA-NAFACULTADNADENAINGENIERÍA</t>
-  </si>
-  <si>
-    <t>MarioNADíazNAGranados</t>
-  </si>
-  <si>
-    <t>Documento que esta enmarcado en el proyecto "Adaptabilidad de la producción agropecuaria sostenible en los ecosistemas de La Mojana", el cual esta compuesto de tres lineas de investigación, a saber: Línea 1, Investigación de la Dinámica de los Ecosistemas de La Mojana; Línea 2, Interrelaciones de los ecosistemas de la Mojana con su Entorno (región Andina) y su efecto en la Calidad Ambiental; y Línea 3, Adaptación de alternativas para el uso y manejo sostenible de los recursos de la Mojana. Este documento se encuentra dentro de la Línea 1 de investigación, la cual a su vez, esta compuesta de dos fases, la fase 1 que consistió en la recopilación, ordenamiento, análisis y procesamiento de la información hidrológica, climatológica, sedimentológica y geomorfológica existente, y la fase 2 que tiene a su vez 2 etapas, etapa 1 (objeto del documento) que consistió en la ejecución de aforos líquidos y sólidos, batimetrías de ríos, caños y ciénagas, muestreos de sedimentos, inspecciones de investigadores en el área de estudio, desarrollo y/o adaptación de modelos matemáticos de balances hídricos, sedimentológicos y de hidráulica fluvial, implementación y modelación de los balances hídrico y de sedimentos de la región de La Mojana e implementación de información geo-referenciada existente en el sistema de información geográfica (SIG). El objetivo general de la fase 2 etapa 1 es la modelación cualitativa y cuantitativa de la dinámica fluvial de la región de La Mojana, en sus componentes hídrico y sedimentológico.</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/UNIANDES-CORPOICA 1998/VOLUMEN II_MODELACION LA MOJANA.pdf</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE LOS ANDES</t>
+  </si>
+  <si>
+    <t>El documento "Modelación hidrológica y dinámica fluvial Fase 2 Etapa 1" está enmarcado en el proyecto "Adaptabilidad de la producción agropecuaria sostenible en los ecosistemas de La Mojana", el cual esta compuesto de tres lineas de investigación, a saber: Línea 1, Investigación de la Dinámica de los Ecosistemas de La Mojana; Línea 2, Interrelaciones de los ecosistemas de la Mojana con su Entorno (región Andina) y su efecto en la Calidad Ambiental; y Línea 3, Adaptación de alternativas para el uso y manejo sostenible de los recursos de la Mojana. Este documento se encuentra dentro de la Línea 1 de investigación, la cual a su vez, esta compuesta de dos fases, la fase 1 que consistió en la recopilación, ordenamiento, análisis y procesamiento de la información hidrológica, climatológica, sedimentológica y geomorfológica existente, y la fase 2 que tiene a su vez 2 etapas, etapa 1 (objeto del documento) que consistió en la ejecución de aforos líquidos y sólidos, batimetrías de ríos, caños y ciénagas, muestreos de sedimentos, inspecciones de investigadores en el área de estudio, desarrollo y/o adaptación de modelos matemáticos de balances hídricos, sedimentológicos y de hidráulica fluvial, implementación y modelación de los balances hídrico y de sedimentos de la región de La Mojana e implementación de información geo-referenciada existente en el sistema de información geográfica (SIG). El objetivo general de la fase 2 etapa 1 es la modelación cualitativa y cuantitativa de la dinámica fluvial de la región de La Mojana, en sus componentes hídrico y sedimentológico.</t>
   </si>
   <si>
     <t>El documento esta compuesto de 4 capitulos, el capitulo 1 presenta una descripción general de la región de la Mojana a nivel hídrico y geomorfológico. Adicionalmente se presenta de una descripción del proyecto, el objetivo general y los principales resultados del estudio. En el capítulo 2 se describe la región de La Mojana dentro del marco geológico regional, definiendo los principales sistemas de fallas activas e inactivas y las estructuras que limitan la planicie aluvial. Relacionado con esta descripción se menciona que la región hace parte de una planicie fluvio-deltáica de desborde en un avanzado proceso de migración lateral histórica y reciente, donde se acumulan sedimentos y se almacena agua en épocas de invierno con su importante efecto amortiguador de crecientes. Se menciona que el sistema ha permanecido siempre como una zona de divagación o migración lateral y de amortiguación hídrica, la cual ha sido influenciada en las últimas decadas por la acción antrópica, las actividades de control de inundaciones y el poblamiento de la llanura, en especial de las orillas de los caños principales. En este capitulo se menciona que se construyó un mapa geomofológico a escala 1:50000 (No presentado en el documento) donde se presentan las principales unidades agradacionales y degradaciones de la región, con especial énfasis en las primeras identificando terrazas, diques y albardones y aluviones recientes y subrecientes. Adicionalmentes se menciona que con el mapa es posible identificar las zonas de divagación de caños internos de la región y los sitios propensos a la generación de cambios morfologicos. En el capítulo 3 se describen los análisis de la información hidroclimatológica existente y se desarrolla un modelo de balance hídrico de la región que permite simular su comportamiento para un período de 21 años. Dentro del análisis de la información hidroclimatológica se analizan datos de precipitación, evaporación, temperatura, caudales y niveles. Adicionalmente se realizaron campañas de medición donde se recopilaron datos de batimetrías de ríos, caños y ciénagas, aforos y muestreos de sedimientos de fondo y en suspensión, estos datos se recopilaron en aproximadamente un mes entre noviembre y diciembre de 1997. La modelación hidrologica fue realizada por medio del modelo de balance hídrico MIHS, este software permite la modelación hidrológica de cuencas que involucren intercambio de río con cienagas. La modelación se realizó mediante la esquematización de los ríos y canales de transporte de agua en tramos, y de la intersección de estos en nodos. Las ciénagas se consideraron como nodos especiales y el aporte de tributarios como microcuencas se puede hacer a tramos o ciénagas. El comportamiento del acuifero aluvial y su interacción con el agua superficial se modeó a a través de un programa adicional (GRWF), sin embargo, por la escasa información disponible del acuifero se decidió no utilizar este modelo. En capítulo 4 se realiza un análisis de la información sedimentológica básica y secundaria de la región de La Mojana, esto con el objetivo de desarrollar modelación de balance sedimentológicos. En base a los resultados de los capítulos anteriores se determinó aquellos tramos de ríos y caños de la región de La Mojana donde se presentaba tendencias a la acumulación de sedimentos debido entre otros factores a la reducción de conducción de agua, al igual que los tramos donde había tendencia a la erosión del lecho, la cual puede generar mayor capacidad de transporte de agua y cambios en la forma de la sección transversal. En este capítulo se presentan las bases teóricas y conceptuales del transporte de sedimentos en cauces aluviales y se describen los software utilizados para la estimación de las tasas de transporte en tramos y redes de drenaje. El software utilizado para la modelación del trasnporte de sedimentos fue HEC-6, el cual realiza simulaciones unidimensionales de la sedimentación y socavación de los sedimentos en un cauce. Para cada iteración y en cada sección del canal calcula la cantidad de sedimentos que el cauce esta transportando y para cada sección utiliza como dato de entrada, el resultado de la sección aguas arriba. La metodología y los algoritmos utilizados en HEC-6 se basan en el modelo de Einstein. Entre las conclusiones más importantes se observó fenómenos similares tanto en el río Cauca como en el Sant Jorge, para los cuales en el tramo de aguas arriba tienen una pendiente mayor que la del tramo aguas abajo, lo que causa una depositación importante de sedimentos. Esto produce una pérdida de capacidad de transporte y puede causar desbordamientos hacia las cienagas cuando llegue un período humedo mientras se desalojan los sedimentos depositados.</t>
   </si>
   <si>
-    <t>s3:\\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0015\02_PRODUCTOS\UNIANDES-CORPOICA 1998\VOLUMEN II_MODELACION LA MOJANA.pdf y s3:\\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0015\02_PRODUCTOS\UNIANDES-CORPOICA 1998\VOLUMEN III_MODELACION LA MOJANA</t>
-  </si>
-  <si>
-    <t>El documento presenta dos anexos donde se presentan datos hidrologicos y sedimentologicos del proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Geomorfología, Dinámica fluvial, Modelación Hidrológica, Modelación de transporte de sedimentos.</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/UNIANDES-CORPOICA 1998/VOLUMEN II_MODELACION LA MOJANA.pdf y s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/UNIANDES-CORPOICA 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento presenta dos anexos donde se presentan datos hidrologicos y sedimentologicos del proyecto. En el documento "VOLUMEN II_MODELACION LA MOJANA" se presentan las tablas de los resultados de la corrida final del modelo donde se presentan las variables de Caudal. Curvas de duración de cotas de superficie de agua estimadas. Curvas de duración de caudals estimadas. Tasas anuales de sedimentos en suspensión. Curvas de duración de carga de lecho. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Geomorfología, dinámica fluvial, modelación hidrológica, modelación de transporte de sedimentos, precipitación, transporte de sedimentos, caudal</t>
+  </si>
+  <si>
+    <t>PR0005</t>
+  </si>
+  <si>
+    <t>GP-F-04InformeTcnicoFinal Mojana Clima</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/Corpoica Informe final convenio 002 de 2012/CD 1/GP-F-04InformeTcnicoFinal Mojana Clima.pdf</t>
+  </si>
+  <si>
+    <t>PR0006</t>
+  </si>
+  <si>
+    <t>INFORME_VERSION_FINAL_MOJANA_07_05_13</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/INFORME_VERSION_FINAL_MOJANA_07_05_13.pdf</t>
+  </si>
+  <si>
+    <t>PR0007</t>
+  </si>
+  <si>
+    <t>VOLUMEN II_MODELACION LA MOJANA</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE LOAS ANDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento titulado ¨Modelación hidrológica y dinámica fluvial Fase 2 Etapa 1, enmarcado dentro del estudio denominado Adaptabilidad de la Producción Agropecuaria Sostenible en los Ecosistemas de la Región de La Mojana. Son los anexos del capítulo 3 de ese estudio, en él se reportan mediante tablas las series decadales complementadas de precipitación, series decadales complementadas por evaporación, series decadales complementadas de caudales, series decadales complementadas de niveles, características hidráulicas de estaciones hidrométricas con sección de aforos, características hidráulicas de secciones transversales tomadas en campo. Finalmente se reportan los datos de entrada al programa de balance hídrico y resultados del programa de balance hídrico 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento titulado ¨Modelación hidrológica y dinámica fluvial Fase 2 Etapa 1, enmarcado dentro del estudio denominado Adaptabilidad de la Producción Agropecuaria Sostenible en los Ecosistemas de la Región de La Mojana. Son los anexos del capítulo 3 de ese estudio, en él se reportan mediante tablas las series decadales complementadas de precipitación, en estas tablas se evidencian los valores decadales complementadas de precipitación en mm, así mismo las series decadales complementadas por evaporación, reportan los valores decadales complementadas por evaporación en mm.  Las series decadales complementadas de caudales relacionan los valores medios decadales de caudal en cms teniendo en cuenta el año, la década y el mes.  Para las series decadales complementadas de niveles, se midieron las cotas fluviométricas medias decadales complementados. Las características hidráulicas de estaciones hidrométricas con sección de aforos, toman las siguientes variables: cota, profundidad, área, ancho superficial, perímetro
+ de fricción, radio hidráulico total, perímetro de fondo, perímetro de banca, nivel y caudal medio. Las características hidráulicas de secciones transversales tomadas en campo miden todas las variables anteriores y la cota cero estimada, la cota nivel de agua. Finalmente se reportan los datos de entrada al programa de balance hídrico y los resultados del mismo
+</t>
+  </si>
+  <si>
+    <t>Información precisa y oportuna refente a la modelación hidrológica y dinámica fluvial de la Mojana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelación hidrológica, dinámica fluvial, balance hídrico, áreas, caudal, Mojana, río, subcuenca, preciítación, evaporción, cotas </t>
+  </si>
+  <si>
+    <t>PR0008</t>
+  </si>
+  <si>
+    <t>VOLUMEN III_MODELACION LA MOJANA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/UNIANDES-CORPOICA 1998/VOLUMEN III_MODELACION LA MOJANA.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento titulado ¨Modelación hidrológica y dinámica fluvial Fase 2 Etapa 1, volumen 3, enmarcado dentro del estudio denominado Adaptabilidad de la Producción Agropecuaria Sostenible en los Ecosistemas de la Región de La Mojana. Este documento, son los anexos del capítulo 4 de ese estudio, en él se reportan,  los resúmenes de aforos sólidos y diagramas de dispersión, información granulométrica, resultados de tasas de transporte de material de lecho con el método de Einstein, datos de entrada al programa HEC-6, datos de entrada al programa HEC-6 modelo 1,  datos de entrada al programa HEC-6 modelo 2,  datos de entrada al programa HEC-6 modelo 3, resultados del programa HEC-6, resultados del programa HEC-6 modelo 1, resultados del programa HEC-6 modelo 2, resultados del programa HEC-6 modelo 3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento titulado ¨Modelación hidrológica y dinámica fluvial Fase 2 Etapa 1, volumen 3, enmarcado dentro del estudio denominado Adaptabilidad de la Producción Agropecuaria Sostenible en los Ecosistemas de la Región de La Mojana, son los anexos del capítulo 4 de ese estudio. En el se reportan, los resúmenes de aforos sólidos y diagramas de dispersión, en esta sección se relacionan, variables como: concentración superficial, concentración media, caudal líquido, caudal sólido, temperatura y nivel estos parámetros fueron medidos en distintas estaciones ubicadas en ríos y caños de la región. En cuanto a la información granulométrica, se tuvo en cuenta el tipo de suelo, peso de la muestra, apertura del tamiz y porcentaje que pasa. Así mismo, los resultados de tasas de transporte de material de lecho con el método de Einstein, estimaron las características del sedimento y las hidráulicas. Por último, es documento reporta: los datos de entrada al programa HEC-6, datos de entrada al programa HEC-6 modelo 1, datos de entrada al programa HEC-6 modelo 2, datos de entrada al programa HEC-6 modelo 3, resultados del programa HEC-6, resultados del programa HEC-6 modelo 1, resultados del programa HEC-6 modelo 2, resultados del programa HEC-6 modelo 3
+</t>
+  </si>
+  <si>
+    <t>Modelación hidrológica, dinámica fluvial, métodode Einstein, HEC-6, cuadal líquido, caudal sólido, río Magdalena, río Brazo Mompós</t>
+  </si>
+  <si>
+    <t>PR0009</t>
+  </si>
+  <si>
+    <t>Sistema de Prod 1998-2012 Liliana 4 4pm</t>
+  </si>
+  <si>
+    <t>El documento titulado "Sistemas de Producción 1998-2012" presenta un análisis detallado de los sistemas productivos en la región de La Mojana, Colombia, abarcando un periodo de estudio que se inicia en 1998 y se extiende hasta 2012. El objetivo principal del documento es caracterizar y clasificar los sistemas agropecuarios presentes en esta zona, identificando su composición, distribución y prácticas de manejo, así como su evolución a lo largo del tiempo. La Mojana es una región que se caracteriza por su diversidad agroecológica, donde se identifican diferentes sistemas de producción, principalmente agrícolas, pecuarios y mixtos. En el estudio de 1998, se reporta que el sistema pecuario es el más predominante, ocupando el 42.7% de las hectáreas analizadas, seguido por los sistemas mixtos (35.4%) y agrícolas (10.0%). La pesca y caza también tienen una representación significativa, con un 11.8% del total de hectáreas. El documento detalla varios sistemas de producción, entre los cuales se destacan: 1. Sistema de Producción 1 (SP01): En suelos aeróbicos, con pastos nativos y no nativos, manejados por productores en predios mayores de 100 hectáreas. 2. Sistema de Producción 3 (SP03): En suelos aeróbicos, con rotaciones de arroz y pastoreo de soca, en predios mayores de 20 hectáreas. 3. Sistema de Producción 7 (SP07): En suelos anaeróbicos, con inundaciones periódicas, cubiertos de pastos nativos y manejados bajo un sistema de doble propósito. El documento también presenta un análisis comparativo de los sistemas de producción en 2012, donde se observa un cambio en la distribución de hectáreas: el sistema agrícola ocupa el 20%, el mixto el 45%, y el pecuario solo el 7%. Dentro del sistema agrícola, el arroz se identifica como el cultivo principal, mientras que en la ganadería se destacan dos clases de ganado: bovino y transhumante.</t>
+  </si>
+  <si>
+    <t>El documento "Sistemas de Producción 1998-2012" presenta un análisis exhaustivo de los sistemas productivos en La Mojana, Colombia, destacando la evolución y características de la agricultura y la ganadería en la región. La metodología utilizada para la recopilación de datos incluye un enfoque de cartografía social, donde se levantaron mapas impresos de la zona de estudio. Se trabajó en colaboración con líderes comunitarios para identificar los usos del suelo, lo que permitió delimitar áreas específicas y digitalizar la información. Este enfoque facilitó el cruce de datos y la identificación de los sistemas de producción actuales, revelando que un 4% del área no tenía uso o era bosque. os principales resultados del estudio son los siguientes:  1. Predominancia de Sistemas Pecuarios: En 1998, el sistema pecuario representó el 42.7% de las hectáreas analizadas, seguido por los sistemas mixtos (35.4%) y agrícolas (10.0%). Esta tendencia se mantiene, aunque con variaciones en la distribución de hectáreas en 2012. 2. Diversidad de Sistemas de Producción: Se identificaron varios sistemas de producción, incluyendo:
+- SP01: Suelos aeróbicos con pastos nativos y no nativos, en predios mayores de 100 hectáreas.
+- SP03: Rotaciones de arroz y pastoreo de soca en suelos aeróbicos.
+- SP07: Suelos anaeróbicos con inundaciones periódicas, cubiertos de pastos nativos.
+3. Cambio en la Composición de Uso del Suelo: En 2012, el sistema agrícola ocupó el 20% de las hectáreas, el sistema mixto el 45%, y el pecuario solo el 7%. Esto indica un cambio en la dinámica productiva de la región.  4. Importancia del Arroz: Dentro del sistema agrícola, el arroz se identificó como el cultivo principal, lo que resalta su relevancia en la economía local. 5. Prácticas de Manejo: Se observó que los productores implementan prácticas de trashumancia y manejo sostenible de los recursos, especialmente en sistemas de doble propósito. El estudio concluye que los sistemas productivos en La Mojana son diversos y están en constante evolución. La predominancia de los sistemas pecuarios y mixtos refleja la adaptación de los productores a las condiciones agroecológicas de la región. Sin embargo, se recomienda fomentar prácticas de manejo sostenible y diversificación de cultivos para mejorar la resiliencia de los sistemas productivos ante cambios climáticos y económicos.</t>
+  </si>
+  <si>
+    <t>El documento presenta una recopilación valiosa de datos sobre los sistemas productivos en La Mojana, lo que es positivo para la comprensión de la dinámica agropecuaria de la región. Sin embargo, la información podría beneficiarse de un mayor nivel de detalle en ciertos aspectos, como las metodologías utilizadas para la recolección de datos y el análisis de los sistemas productivos.</t>
+  </si>
+  <si>
+    <t>La Mojana, sistemas de producción, pecuarios, agrícolas, manejo sostenible, arroz, ganadería, suelos aeróbicos</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/Corpoica Informe final convenio 002 de 2012/CD 2/INFORME FINAL COMPONENTE ECONOMICO MOJANA NOVIEMBRE 27  DE  .doc</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/Corpoica Informe final convenio 002 de 2012/CD 4/GP-F-04InformeTcnicoFinal.doc</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/Corpoica Informe final convenio 002 de 2012/CD 2/ARCHIVOS INFORME FINAL MOJANA/mapas/Sistemas de Prod 1998-2012  Lilia 4 4pm.docx</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/UNIANDES-CORPOICA 1998/INFORME_MODELACION LA MOJANA.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,16 +342,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -309,23 +438,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -698,7 +865,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R5" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R10" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -986,20 +1153,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+    <col min="4" max="4" width="61.28515625" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
@@ -1067,7 +1236,7 @@
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1094,28 +1263,28 @@
       <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="P2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1129,8 +1298,8 @@
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
+      <c r="D3" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E3" s="1">
         <v>2012</v>
@@ -1153,7 +1322,7 @@
       <c r="K3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1162,13 +1331,13 @@
       <c r="N3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="12" t="s">
         <v>39</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="11" t="s">
         <v>41</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -1185,8 +1354,8 @@
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E4" s="1">
         <v>2013</v>
@@ -1195,7 +1364,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>25</v>
@@ -1207,28 +1376,28 @@
         <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>47</v>
+      <c r="Q4" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,13 +1405,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1">
         <v>1998</v>
@@ -1251,10 +1420,10 @@
         <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>25</v>
@@ -1262,29 +1431,253 @@
       <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="K5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>39</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" s="6" t="s">
         <v>57</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1998</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1998</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1998</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1297,6 +1690,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1440,16 +1842,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1465,12 +1866,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/P0015/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0015/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0015/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:1_{C7F074B2-5C07-447C-9C7E-9D39A96EC282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA6E513-1DA0-4B97-A6A7-607951CD1FED}"/>
+  <xr:revisionPtr revIDLastSave="320" documentId="13_ncr:1_{C7F074B2-5C07-447C-9C7E-9D39A96EC282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D802C4B9-E09A-4D36-9193-3E3E8F56798E}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="765" windowWidth="10050" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="97">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -144,6 +144,9 @@
     <t xml:space="preserve">INFORME FINAL COMPONENTE ECONOMICO MOJANA NOVIEMBRE 27  DE  </t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/Corpoica Informe final convenio 002 de 2012/CD 2/INFORME FINAL COMPONENTE ECONOMICO MOJANA NOVIEMBRE 27  DE  .doc</t>
+  </si>
+  <si>
     <t>IGAC</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
   </si>
   <si>
     <t>GP-F-04InformeTcnicoFinal</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/Corpoica Informe final convenio 002 de 2012/CD 4/GP-F-04InformeTcnicoFinal.doc</t>
   </si>
   <si>
     <t>UNIVERSIDAD DE CÓRDOBA</t>
@@ -199,49 +205,76 @@
     <t>INFORME_MODELACION LA MOJANA</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/UNIANDES-CORPOICA 1998/INFORME_MODELACION LA MOJANA.pdf</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE LOS ANDES</t>
+  </si>
+  <si>
+    <t>El documento "Modelación hidrológica y dinámica fluvial Fase 2 Etapa 1" está enmarcado en el proyecto "Adaptabilidad de la producción agropecuaria sostenible en los ecosistemas de La Mojana", el cual esta compuesto de tres lineas de investigación, a saber: Línea 1, Investigación de la Dinámica de los Ecosistemas de La Mojana; Línea 2, Interrelaciones de los ecosistemas de la Mojana con su Entorno (región Andina) y su efecto en la Calidad Ambiental; y Línea 3, Adaptación de alternativas para el uso y manejo sostenible de los recursos de la Mojana. Este documento se encuentra dentro de la Línea 1 de investigación, la cual a su vez, esta compuesta de dos fases, la fase 1 que consistió en la recopilación, ordenamiento, análisis y procesamiento de la información hidrológica, climatológica, sedimentológica y geomorfológica existente, y la fase 2 que tiene a su vez 2 etapas, etapa 1 (objeto del documento) que consistió en la ejecución de aforos líquidos y sólidos, batimetrías de ríos, caños y ciénagas, muestreos de sedimentos, inspecciones de investigadores en el área de estudio, desarrollo y/o adaptación de modelos matemáticos de balances hídricos, sedimentológicos y de hidráulica fluvial, implementación y modelación de los balances hídrico y de sedimentos de la región de La Mojana e implementación de información geo-referenciada existente en el sistema de información geográfica (SIG). El objetivo general de la fase 2 etapa 1 es la modelación cualitativa y cuantitativa de la dinámica fluvial de la región de La Mojana, en sus componentes hídrico y sedimentológico.</t>
+  </si>
+  <si>
+    <t>El documento esta compuesto de 4 capitulos, el capitulo 1 presenta una descripción general de la región de la Mojana a nivel hídrico y geomorfológico. Adicionalmente se presenta de una descripción del proyecto, el objetivo general y los principales resultados del estudio. En el capítulo 2 se describe la región de La Mojana dentro del marco geológico regional, definiendo los principales sistemas de fallas activas e inactivas y las estructuras que limitan la planicie aluvial. Relacionado con esta descripción se menciona que la región hace parte de una planicie fluvio-deltáica de desborde en un avanzado proceso de migración lateral histórica y reciente, donde se acumulan sedimentos y se almacena agua en épocas de invierno con su importante efecto amortiguador de crecientes. Se menciona que el sistema ha permanecido siempre como una zona de divagación o migración lateral y de amortiguación hídrica, la cual ha sido influenciada en las últimas decadas por la acción antrópica, las actividades de control de inundaciones y el poblamiento de la llanura, en especial de las orillas de los caños principales. En este capitulo se menciona que se construyó un mapa geomofológico a escala 1:50000 (No presentado en el documento) donde se presentan las principales unidades agradacionales y degradaciones de la región, con especial énfasis en las primeras identificando terrazas, diques y albardones y aluviones recientes y subrecientes. Adicionalmentes se menciona que con el mapa es posible identificar las zonas de divagación de caños internos de la región y los sitios propensos a la generación de cambios morfologicos. En el capítulo 3 se describen los análisis de la información hidroclimatológica existente y se desarrolla un modelo de balance hídrico de la región que permite simular su comportamiento para un período de 21 años. Dentro del análisis de la información hidroclimatológica se analizan datos de precipitación, evaporación, temperatura, caudales y niveles. Adicionalmente se realizaron campañas de medición donde se recopilaron datos de batimetrías de ríos, caños y ciénagas, aforos y muestreos de sedimientos de fondo y en suspensión, estos datos se recopilaron en aproximadamente un mes entre noviembre y diciembre de 1997. La modelación hidrologica fue realizada por medio del modelo de balance hídrico MIHS, este software permite la modelación hidrológica de cuencas que involucren intercambio de río con cienagas. La modelación se realizó mediante la esquematización de los ríos y canales de transporte de agua en tramos, y de la intersección de estos en nodos. Las ciénagas se consideraron como nodos especiales y el aporte de tributarios como microcuencas se puede hacer a tramos o ciénagas. El comportamiento del acuifero aluvial y su interacción con el agua superficial se modeó a a través de un programa adicional (GRWF), sin embargo, por la escasa información disponible del acuifero se decidió no utilizar este modelo. En capítulo 4 se realiza un análisis de la información sedimentológica básica y secundaria de la región de La Mojana, esto con el objetivo de desarrollar modelación de balance sedimentológicos. En base a los resultados de los capítulos anteriores se determinó aquellos tramos de ríos y caños de la región de La Mojana donde se presentaba tendencias a la acumulación de sedimentos debido entre otros factores a la reducción de conducción de agua, al igual que los tramos donde había tendencia a la erosión del lecho, la cual puede generar mayor capacidad de transporte de agua y cambios en la forma de la sección transversal. En este capítulo se presentan las bases teóricas y conceptuales del transporte de sedimentos en cauces aluviales y se describen los software utilizados para la estimación de las tasas de transporte en tramos y redes de drenaje. El software utilizado para la modelación del trasnporte de sedimentos fue HEC-6, el cual realiza simulaciones unidimensionales de la sedimentación y socavación de los sedimentos en un cauce. Para cada iteración y en cada sección del canal calcula la cantidad de sedimentos que el cauce esta transportando y para cada sección utiliza como dato de entrada, el resultado de la sección aguas arriba. La metodología y los algoritmos utilizados en HEC-6 se basan en el modelo de Einstein. Entre las conclusiones más importantes se observó fenómenos similares tanto en el río Cauca como en el Sant Jorge, para los cuales en el tramo de aguas arriba tienen una pendiente mayor que la del tramo aguas abajo, lo que causa una depositación importante de sedimentos. Esto produce una pérdida de capacidad de transporte y puede causar desbordamientos hacia las cienagas cuando llegue un período humedo mientras se desalojan los sedimentos depositados.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/UNIANDES-CORPOICA 1998/VOLUMEN II_MODELACION LA MOJANA.pdf y s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/UNIANDES-CORPOICA 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento presenta dos anexos donde se presentan datos hidrologicos y sedimentologicos del proyecto. En el documento "VOLUMEN II_MODELACION LA MOJANA" se presentan las tablas de los resultados de la corrida final del modelo donde se presentan las variables de Caudal. Curvas de duración de cotas de superficie de agua estimadas. Curvas de duración de caudals estimadas. Tasas anuales de sedimentos en suspensión. Curvas de duración de carga de lecho. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Geomorfología, dinámica fluvial, modelación hidrológica, modelación de transporte de sedimentos, precipitación, transporte de sedimentos, caudal</t>
+  </si>
+  <si>
+    <t>PR0005</t>
+  </si>
+  <si>
+    <t>GP-F-04InformeTcnicoFinal Mojana Clima</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/Corpoica Informe final convenio 002 de 2012/CD 1/GP-F-04InformeTcnicoFinal Mojana Clima.pdf</t>
+  </si>
+  <si>
+    <t>El documento corresponde a un informe técnico final sobre la creación de un Sistema de Alertas Tempranas (SAT) por inundación para el sector agropecuario en la región de La Mojana. Presenta un análisis exhaustivo de las condiciones climáticas y su impacto en la producción agrícola.</t>
+  </si>
+  <si>
+    <t>El objetivo de este informe es contribuir a la implementación de un  sistema de alerta temprana que permita a los pobladores, productores y autoridades tomar decisiones informadas y oportunas ante situaciones de inundación. Se busca establecer un marco que facilite la prevención y respuesta ante desastres, mejorando así la resiliencia de la comunidad agropecuaria. Entre las metodologias utilizadas se utilizaron herramientas tecnológicas avanzadas para modelar el comportamiento del agua en la región, se aplicarón métodos estadísticos para interpretar los datos de precipitación y establecer patrones climáticos y tambien se usaron programas específicos para simular escenarios de inundación y evaluar el impacto potencial en la infraestructura y la agricultura. Se presenta un análisis del comportamiento climático en La Mojana, destacando la importancia del sector agropecuario, que incluye actividades como la ganadería extensiva y el cultivo de arroz. Se discuten los impactos de las inundaciones en la producción agrícola y la calidad de vida de las comunidades afectadas. El documento detalla la estructura del Sistema de alerrta temprana (SAT)  que tiene tres subsistemas  (el de información, de comunicación y acción social). Finalmente, se presentan los hallazgos sobre la necesidad de un sistema de monitoreo más robusto, así como recomendaciones para la instalación de nuevas estaciones meteorológicas y la capacitación del personal encargado de operar el Sistema de alerta temprana.</t>
+  </si>
+  <si>
+    <t>La creación de un Sistema de Alertas Tempranas (SAT) es altamente pertinente, dado el contexto de vulnerabilidad de la región de La Mojana ante inundaciones. La relevancia del documento radica en su potencial para influir en la toma de decisiones a nivel local y regional, proporcionando un marco que puede ser utilizado por autoridades y comunidades para mejorar la gestión de riesgos.</t>
+  </si>
+  <si>
+    <t>Inundación, sistema de alerta temprana, precipitación, prevención de desastres, gestión de riesgos, La Mojana, agropecuario, acción social</t>
+  </si>
+  <si>
+    <t>PR0006</t>
+  </si>
+  <si>
+    <t>INFORME_VERSION_FINAL_MOJANA_07_05_13</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/INFORME_VERSION_FINAL_MOJANA_07_05_13.pdf</t>
+  </si>
+  <si>
+    <t>El documento corresponde a la "Descripción del Sistema Hídrico y Contribución para la Esquematización del Sistema de Alertas Tempranas por Inundación para el Sector Agropecuario en la Región de La Mojana" Presenta un análisis exhaustivo del sistema hídrico de la región de La Mojana</t>
+  </si>
+  <si>
+    <t>El objetivo principal de este documento es roporcionar una descripción detallada del sistema hídrico de la región de La Mojana y contribuir a la esquematización de un sistema de alertas tempranas por inundación. Esto incluye la identificación de puntos críticos, la evaluación de riesgos y la formulación de recomendaciones para la gestión de emergencias. El documento detalla las metodologías empleadas, que incluyen análisis hidrológicos, simulaciones y la utilización de herramientas tecnológicas avanzadas para la recolección y análisis de datos. Se menciona la colaboración con entidades como el IDEAM para la validación de información hidrometeorológica. Se analiza la complejidad del sistema hídrico de La Mojana, que incluye los ríos Cauca, San Jorge y Magdalena, así como una red de caños y ciénagas. Se discuten las interacciones entre estos cuerpos de agua y su influencia en la dinámica de inundaciones. Se realiza una zonificación de la región para identificar áreas vulnerables a inundaciones. Se destacan los municipios más afectados, como San Marcos y otros en la cuenca del río Cauca.  Se presentan los modelos utilizados para simular caudales y niveles de agua en diferentes puntos de interés, considerando diversos periodos de retorno. Se menciona el uso de software especializado para la construcción de modelos en dos dimensiones y el manejo de modelos de elevación digital. Se describe la estructura y funcionamiento del sistema de alertas tempranas, que se basa en el monitoreo constante de precipitaciones, caudales y niveles de agua. Se enfatiza la importancia de la capacitación de los operadores y la comunidad para la correcta interpretación de los datos. Finalmente, se proponen acciones concretas para mejorar la respuesta ante inundaciones, incluyendo la adecuación de albergues, la planificación de rutas de evacuación y la realización de simulacros.</t>
+  </si>
+  <si>
+    <t>El documento presenta un análisis exhaustivo del sistema hídrico de La Mojana, lo que es positivo para la comprensión de la dinámica de inundaciones en la región. Sin embargo, se observan algunas áreas donde la información podría ser más detallada, especialmente en la descripción de metodologías específicas utilizadas en la recolección de datos y en la modelación hidrológica.</t>
+  </si>
+  <si>
+    <t>Modelación hidrológica, zonificación, sistema hídrico, modelo hidráulico,Río Cauca, Río San Jorge, Ciénaga Ayapel, Ciénagqa San Marcos, rompederos, precipitación, evaporación, humedad relativa</t>
+  </si>
+  <si>
+    <t>PR0007</t>
+  </si>
+  <si>
+    <t>VOLUMEN II_MODELACION LA MOJANA</t>
+  </si>
+  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/UNIANDES-CORPOICA 1998/VOLUMEN II_MODELACION LA MOJANA.pdf</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD DE LOS ANDES</t>
-  </si>
-  <si>
-    <t>El documento "Modelación hidrológica y dinámica fluvial Fase 2 Etapa 1" está enmarcado en el proyecto "Adaptabilidad de la producción agropecuaria sostenible en los ecosistemas de La Mojana", el cual esta compuesto de tres lineas de investigación, a saber: Línea 1, Investigación de la Dinámica de los Ecosistemas de La Mojana; Línea 2, Interrelaciones de los ecosistemas de la Mojana con su Entorno (región Andina) y su efecto en la Calidad Ambiental; y Línea 3, Adaptación de alternativas para el uso y manejo sostenible de los recursos de la Mojana. Este documento se encuentra dentro de la Línea 1 de investigación, la cual a su vez, esta compuesta de dos fases, la fase 1 que consistió en la recopilación, ordenamiento, análisis y procesamiento de la información hidrológica, climatológica, sedimentológica y geomorfológica existente, y la fase 2 que tiene a su vez 2 etapas, etapa 1 (objeto del documento) que consistió en la ejecución de aforos líquidos y sólidos, batimetrías de ríos, caños y ciénagas, muestreos de sedimentos, inspecciones de investigadores en el área de estudio, desarrollo y/o adaptación de modelos matemáticos de balances hídricos, sedimentológicos y de hidráulica fluvial, implementación y modelación de los balances hídrico y de sedimentos de la región de La Mojana e implementación de información geo-referenciada existente en el sistema de información geográfica (SIG). El objetivo general de la fase 2 etapa 1 es la modelación cualitativa y cuantitativa de la dinámica fluvial de la región de La Mojana, en sus componentes hídrico y sedimentológico.</t>
-  </si>
-  <si>
-    <t>El documento esta compuesto de 4 capitulos, el capitulo 1 presenta una descripción general de la región de la Mojana a nivel hídrico y geomorfológico. Adicionalmente se presenta de una descripción del proyecto, el objetivo general y los principales resultados del estudio. En el capítulo 2 se describe la región de La Mojana dentro del marco geológico regional, definiendo los principales sistemas de fallas activas e inactivas y las estructuras que limitan la planicie aluvial. Relacionado con esta descripción se menciona que la región hace parte de una planicie fluvio-deltáica de desborde en un avanzado proceso de migración lateral histórica y reciente, donde se acumulan sedimentos y se almacena agua en épocas de invierno con su importante efecto amortiguador de crecientes. Se menciona que el sistema ha permanecido siempre como una zona de divagación o migración lateral y de amortiguación hídrica, la cual ha sido influenciada en las últimas decadas por la acción antrópica, las actividades de control de inundaciones y el poblamiento de la llanura, en especial de las orillas de los caños principales. En este capitulo se menciona que se construyó un mapa geomofológico a escala 1:50000 (No presentado en el documento) donde se presentan las principales unidades agradacionales y degradaciones de la región, con especial énfasis en las primeras identificando terrazas, diques y albardones y aluviones recientes y subrecientes. Adicionalmentes se menciona que con el mapa es posible identificar las zonas de divagación de caños internos de la región y los sitios propensos a la generación de cambios morfologicos. En el capítulo 3 se describen los análisis de la información hidroclimatológica existente y se desarrolla un modelo de balance hídrico de la región que permite simular su comportamiento para un período de 21 años. Dentro del análisis de la información hidroclimatológica se analizan datos de precipitación, evaporación, temperatura, caudales y niveles. Adicionalmente se realizaron campañas de medición donde se recopilaron datos de batimetrías de ríos, caños y ciénagas, aforos y muestreos de sedimientos de fondo y en suspensión, estos datos se recopilaron en aproximadamente un mes entre noviembre y diciembre de 1997. La modelación hidrologica fue realizada por medio del modelo de balance hídrico MIHS, este software permite la modelación hidrológica de cuencas que involucren intercambio de río con cienagas. La modelación se realizó mediante la esquematización de los ríos y canales de transporte de agua en tramos, y de la intersección de estos en nodos. Las ciénagas se consideraron como nodos especiales y el aporte de tributarios como microcuencas se puede hacer a tramos o ciénagas. El comportamiento del acuifero aluvial y su interacción con el agua superficial se modeó a a través de un programa adicional (GRWF), sin embargo, por la escasa información disponible del acuifero se decidió no utilizar este modelo. En capítulo 4 se realiza un análisis de la información sedimentológica básica y secundaria de la región de La Mojana, esto con el objetivo de desarrollar modelación de balance sedimentológicos. En base a los resultados de los capítulos anteriores se determinó aquellos tramos de ríos y caños de la región de La Mojana donde se presentaba tendencias a la acumulación de sedimentos debido entre otros factores a la reducción de conducción de agua, al igual que los tramos donde había tendencia a la erosión del lecho, la cual puede generar mayor capacidad de transporte de agua y cambios en la forma de la sección transversal. En este capítulo se presentan las bases teóricas y conceptuales del transporte de sedimentos en cauces aluviales y se describen los software utilizados para la estimación de las tasas de transporte en tramos y redes de drenaje. El software utilizado para la modelación del trasnporte de sedimentos fue HEC-6, el cual realiza simulaciones unidimensionales de la sedimentación y socavación de los sedimentos en un cauce. Para cada iteración y en cada sección del canal calcula la cantidad de sedimentos que el cauce esta transportando y para cada sección utiliza como dato de entrada, el resultado de la sección aguas arriba. La metodología y los algoritmos utilizados en HEC-6 se basan en el modelo de Einstein. Entre las conclusiones más importantes se observó fenómenos similares tanto en el río Cauca como en el Sant Jorge, para los cuales en el tramo de aguas arriba tienen una pendiente mayor que la del tramo aguas abajo, lo que causa una depositación importante de sedimentos. Esto produce una pérdida de capacidad de transporte y puede causar desbordamientos hacia las cienagas cuando llegue un período humedo mientras se desalojan los sedimentos depositados.</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/UNIANDES-CORPOICA 1998/VOLUMEN II_MODELACION LA MOJANA.pdf y s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/UNIANDES-CORPOICA 1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento presenta dos anexos donde se presentan datos hidrologicos y sedimentologicos del proyecto. En el documento "VOLUMEN II_MODELACION LA MOJANA" se presentan las tablas de los resultados de la corrida final del modelo donde se presentan las variables de Caudal. Curvas de duración de cotas de superficie de agua estimadas. Curvas de duración de caudals estimadas. Tasas anuales de sedimentos en suspensión. Curvas de duración de carga de lecho. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Geomorfología, dinámica fluvial, modelación hidrológica, modelación de transporte de sedimentos, precipitación, transporte de sedimentos, caudal</t>
-  </si>
-  <si>
-    <t>PR0005</t>
-  </si>
-  <si>
-    <t>GP-F-04InformeTcnicoFinal Mojana Clima</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/Corpoica Informe final convenio 002 de 2012/CD 1/GP-F-04InformeTcnicoFinal Mojana Clima.pdf</t>
-  </si>
-  <si>
-    <t>PR0006</t>
-  </si>
-  <si>
-    <t>INFORME_VERSION_FINAL_MOJANA_07_05_13</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/INFORME_VERSION_FINAL_MOJANA_07_05_13.pdf</t>
-  </si>
-  <si>
-    <t>PR0007</t>
-  </si>
-  <si>
-    <t>VOLUMEN II_MODELACION LA MOJANA</t>
   </si>
   <si>
     <t>UNIVERSIDAD DE LOAS ANDES</t>
@@ -286,6 +319,9 @@
   </si>
   <si>
     <t>Sistema de Prod 1998-2012 Liliana 4 4pm</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/Corpoica Informe final convenio 002 de 2012/CD 2/ARCHIVOS INFORME FINAL MOJANA/mapas/Sistemas de Prod 1998-2012  Lilia 4 4pm.docx</t>
   </si>
   <si>
     <t>El documento titulado "Sistemas de Producción 1998-2012" presenta un análisis detallado de los sistemas productivos en la región de La Mojana, Colombia, abarcando un periodo de estudio que se inicia en 1998 y se extiende hasta 2012. El objetivo principal del documento es caracterizar y clasificar los sistemas agropecuarios presentes en esta zona, identificando su composición, distribución y prácticas de manejo, así como su evolución a lo largo del tiempo. La Mojana es una región que se caracteriza por su diversidad agroecológica, donde se identifican diferentes sistemas de producción, principalmente agrícolas, pecuarios y mixtos. En el estudio de 1998, se reporta que el sistema pecuario es el más predominante, ocupando el 42.7% de las hectáreas analizadas, seguido por los sistemas mixtos (35.4%) y agrícolas (10.0%). La pesca y caza también tienen una representación significativa, con un 11.8% del total de hectáreas. El documento detalla varios sistemas de producción, entre los cuales se destacan: 1. Sistema de Producción 1 (SP01): En suelos aeróbicos, con pastos nativos y no nativos, manejados por productores en predios mayores de 100 hectáreas. 2. Sistema de Producción 3 (SP03): En suelos aeróbicos, con rotaciones de arroz y pastoreo de soca, en predios mayores de 20 hectáreas. 3. Sistema de Producción 7 (SP07): En suelos anaeróbicos, con inundaciones periódicas, cubiertos de pastos nativos y manejados bajo un sistema de doble propósito. El documento también presenta un análisis comparativo de los sistemas de producción en 2012, donde se observa un cambio en la distribución de hectáreas: el sistema agrícola ocupa el 20%, el mixto el 45%, y el pecuario solo el 7%. Dentro del sistema agrícola, el arroz se identifica como el cultivo principal, mientras que en la ganadería se destacan dos clases de ganado: bovino y transhumante.</t>
@@ -303,24 +339,12 @@
   <si>
     <t>La Mojana, sistemas de producción, pecuarios, agrícolas, manejo sostenible, arroz, ganadería, suelos aeróbicos</t>
   </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/Corpoica Informe final convenio 002 de 2012/CD 2/INFORME FINAL COMPONENTE ECONOMICO MOJANA NOVIEMBRE 27  DE  .doc</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/Corpoica Informe final convenio 002 de 2012/CD 4/GP-F-04InformeTcnicoFinal.doc</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/Corpoica Informe final convenio 002 de 2012/CD 2/ARCHIVOS INFORME FINAL MOJANA/mapas/Sistemas de Prod 1998-2012  Lilia 4 4pm.docx</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0015/02_PRODUCTOS/CORPOICA/UNIANDES-CORPOICA 1998/INFORME_MODELACION LA MOJANA.pdf</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,12 +384,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -479,20 +497,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -830,6 +847,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -839,13 +863,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -865,7 +882,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R10" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R10" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -1155,11 +1172,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -1176,7 +1193,7 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1275,20 +1292,20 @@
       <c r="N2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="8" t="s">
         <v>31</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1299,7 +1316,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1">
         <v>2012</v>
@@ -1308,7 +1325,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>25</v>
@@ -1320,42 +1337,42 @@
         <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="O3" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="P3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="Q3" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="R3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1">
         <v>2013</v>
@@ -1364,7 +1381,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>25</v>
@@ -1376,42 +1393,42 @@
         <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="11" t="s">
-        <v>49</v>
+      <c r="Q4" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1">
         <v>1998</v>
@@ -1420,7 +1437,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
@@ -1431,8 +1448,8 @@
       <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>55</v>
+      <c r="K5" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>27</v>
@@ -1441,95 +1458,151 @@
         <v>28</v>
       </c>
       <c r="N5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="16" customFormat="1">
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2013</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>59</v>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:18">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>66</v>
+      <c r="B8" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E8" s="3">
         <v>1998</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>22</v>
@@ -1544,7 +1617,7 @@
         <v>25</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>27</v>
@@ -1553,39 +1626,39 @@
         <v>28</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>30</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="15" t="s">
-        <v>71</v>
+      <c r="Q8" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E9" s="3">
         <v>1998</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>22</v>
@@ -1600,7 +1673,7 @@
         <v>25</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>27</v>
@@ -1609,33 +1682,33 @@
         <v>28</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>30</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="15" t="s">
-        <v>71</v>
+      <c r="Q9" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:18">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E10" s="3">
         <v>1998</v>
@@ -1656,28 +1729,28 @@
         <v>25</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>30</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1843,27 +1916,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>